--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>10971.86783392717</v>
+        <v>0.1061101823235556</v>
       </c>
       <c r="R2">
-        <v>98746.81050534456</v>
+        <v>0.9549916409120001</v>
       </c>
       <c r="S2">
-        <v>0.1088905407499491</v>
+        <v>4.085810280752765E-06</v>
       </c>
       <c r="T2">
-        <v>0.1088905407499491</v>
+        <v>4.085810280752765E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>35.66366514259499</v>
+        <v>0.05749795770844444</v>
       </c>
       <c r="R3">
-        <v>320.972986283355</v>
+        <v>0.517481619376</v>
       </c>
       <c r="S3">
-        <v>0.0003539448197228491</v>
+        <v>2.213979295701374E-06</v>
       </c>
       <c r="T3">
-        <v>0.0003539448197228491</v>
+        <v>2.213979295701375E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>912.5234363118298</v>
+        <v>1.954331201882667</v>
       </c>
       <c r="R4">
-        <v>8212.710926806469</v>
+        <v>17.588980816944</v>
       </c>
       <c r="S4">
-        <v>0.009056358673929723</v>
+        <v>7.525221747616863E-05</v>
       </c>
       <c r="T4">
-        <v>0.009056358673929723</v>
+        <v>7.525221747616863E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>24677.30999293255</v>
+        <v>38.96133582407289</v>
       </c>
       <c r="R5">
-        <v>222095.789936393</v>
+        <v>350.652022416656</v>
       </c>
       <c r="S5">
-        <v>0.2449104992930582</v>
+        <v>0.001500220082333413</v>
       </c>
       <c r="T5">
-        <v>0.2449104992930582</v>
+        <v>0.001500220082333413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>289.7539511351756</v>
+        <v>1.738118629267111</v>
       </c>
       <c r="R6">
-        <v>2607.78556021658</v>
+        <v>15.643067663404</v>
       </c>
       <c r="S6">
-        <v>0.002875669384749629</v>
+        <v>6.692687552805163E-05</v>
       </c>
       <c r="T6">
-        <v>0.002875669384749628</v>
+        <v>6.692687552805163E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
-        <v>0.9418348856768888</v>
+        <v>0.9418348856768889</v>
       </c>
       <c r="R7">
-        <v>8.476513971091999</v>
+        <v>8.476513971092</v>
       </c>
       <c r="S7">
-        <v>9.347260790126982E-06</v>
+        <v>3.626568699068175E-05</v>
       </c>
       <c r="T7">
-        <v>9.34726079012698E-06</v>
+        <v>3.626568699068176E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>24.09865623400977</v>
+        <v>32.01256840170534</v>
       </c>
       <c r="R8">
-        <v>216.8879061060879</v>
+        <v>288.113115615348</v>
       </c>
       <c r="S8">
-        <v>0.0002391676374877734</v>
+        <v>0.001232655323220125</v>
       </c>
       <c r="T8">
-        <v>0.0002391676374877734</v>
+        <v>0.001232655323220125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>651.6983418018831</v>
+        <v>638.1991071362058</v>
       </c>
       <c r="R9">
-        <v>5865.285076216947</v>
+        <v>5743.791964225852</v>
       </c>
       <c r="S9">
-        <v>0.006467794355416698</v>
+        <v>0.02457408342917802</v>
       </c>
       <c r="T9">
-        <v>0.006467794355416698</v>
+        <v>0.02457408342917802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>2626.46699269435</v>
+        <v>2.686698748070778</v>
       </c>
       <c r="R10">
-        <v>23638.20293424915</v>
+        <v>24.180288732637</v>
       </c>
       <c r="S10">
-        <v>0.02606642874534272</v>
+        <v>0.0001034522901174611</v>
       </c>
       <c r="T10">
-        <v>0.02606642874534271</v>
+        <v>0.0001034522901174611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>8.53723730119</v>
+        <v>1.455842291561222</v>
       </c>
       <c r="R11">
-        <v>76.83513571071001</v>
+        <v>13.102580624051</v>
       </c>
       <c r="S11">
-        <v>8.472799712029283E-05</v>
+        <v>5.605772482680046E-05</v>
       </c>
       <c r="T11">
-        <v>8.472799712029283E-05</v>
+        <v>5.605772482680048E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>218.4416292476599</v>
+        <v>49.48346217522433</v>
       </c>
       <c r="R12">
-        <v>1965.97466322894</v>
+        <v>445.351159577019</v>
       </c>
       <c r="S12">
-        <v>0.002167928696472801</v>
+        <v>0.001905378296931734</v>
       </c>
       <c r="T12">
-        <v>0.002167928696472801</v>
+        <v>0.001905378296931735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>5907.30230676911</v>
+        <v>986.4969590054534</v>
       </c>
       <c r="R13">
-        <v>53165.72076092199</v>
+        <v>8878.472631049081</v>
       </c>
       <c r="S13">
-        <v>0.05862715011645115</v>
+        <v>0.03798541599660462</v>
       </c>
       <c r="T13">
-        <v>0.05862715011645115</v>
+        <v>0.03798541599660462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>16319.85496951714</v>
+        <v>62.55217691257778</v>
       </c>
       <c r="R14">
-        <v>146878.6947256542</v>
+        <v>562.9695922131999</v>
       </c>
       <c r="S14">
-        <v>0.1619667552954285</v>
+        <v>0.002408593802370088</v>
       </c>
       <c r="T14">
-        <v>0.1619667552954284</v>
+        <v>0.002408593802370088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>53.04710662015411</v>
+        <v>33.89516768262222</v>
       </c>
       <c r="R15">
-        <v>477.423959581387</v>
+        <v>305.0565091436</v>
       </c>
       <c r="S15">
-        <v>0.0005264671624303788</v>
+        <v>0.001305145477586775</v>
       </c>
       <c r="T15">
-        <v>0.0005264671624303788</v>
+        <v>0.001305145477586775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>1357.312206299524</v>
+        <v>1152.082377100933</v>
       </c>
       <c r="R16">
-        <v>12215.80985669572</v>
+        <v>10368.7413939084</v>
       </c>
       <c r="S16">
-        <v>0.01347067448747785</v>
+        <v>0.04436134136759579</v>
       </c>
       <c r="T16">
-        <v>0.01347067448747785</v>
+        <v>0.0443613413675958</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>36705.70282273676</v>
+        <v>22967.78987511684</v>
       </c>
       <c r="R17">
-        <v>330351.3254046308</v>
+        <v>206710.1088760516</v>
       </c>
       <c r="S17">
-        <v>0.3642865453241722</v>
+        <v>0.8843829116396639</v>
       </c>
       <c r="T17">
-        <v>0.3642865453241722</v>
+        <v>0.8843829116396639</v>
       </c>
     </row>
   </sheetData>
